--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Hubspot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{2B2B7A31-C51C-4195-8ED0-285BEFC73571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7FBAFBB-2512-4479-B479-D5D14D779CC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D7AA0-ADA3-40D1-A105-16FD70F15FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$16</definedName>
-    <definedName name="Field_Type">Tabelle1!$U$19:$U$29,Tabelle1!$U$6:$U$15,Tabelle1!$U$16,Tabelle1!$Q$6:$Q$16,Tabelle1!$Q$19:$Q$29,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$6:$M$16,Tabelle1!$M$19:$M$29,Tabelle1!$I$19:$I$29,Tabelle1!$I$6:$I$16</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$20:$Q$30,Tabelle1!$I$20:$I$30,Tabelle1!$I$7:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>snapADDY</t>
   </si>
@@ -70,33 +70,12 @@
     <t>Username</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>CRM System: Hubspot</t>
   </si>
   <si>
-    <t>HS: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>Hubspot: Unternehmen</t>
   </si>
   <si>
-    <t>Hubspot: Deal</t>
-  </si>
-  <si>
-    <t>HS: Custom Entity</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -169,6 +148,39 @@
     <t>nicht benötigt</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlagen-Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Hier bitte den Name der master-Vorlage eingeben]</t>
+    </r>
+  </si>
+  <si>
     <t>Kampagnen-ID</t>
   </si>
   <si>
@@ -190,14 +202,17 @@
     <t>Erstellt von</t>
   </si>
   <si>
-    <t>Export-Art</t>
+    <t>Hubspot: Geschäft</t>
+  </si>
+  <si>
+    <t>Hubspot: Person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,12 +283,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,24 +310,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7A59"/>
+        <fgColor rgb="FFFE6C36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FFF87757"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -320,21 +344,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FF9DA600"/>
@@ -427,15 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -490,26 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +667,239 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FFFF7A59"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -708,11 +910,9 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FFFF7A59"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -720,74 +920,98 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FFF87757"/>
       </right>
       <top style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7A59"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFF7A59"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7A59"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFF7A59"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7A59"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,245 +1019,51 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFF7A59"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF87757"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF87757"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFF7A59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7A59"/>
-      </left>
-      <right/>
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7A59"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF7A59"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF7A59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF7A59"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF7A59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFF7A59"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF7A59"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF7A59"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,146 +1075,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1259,50 +1359,6 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -1321,8 +1377,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF7A59"/>
-      <color rgb="FFDD6C1D"/>
+      <color rgb="FF9DA600"/>
+      <color rgb="FFF87757"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1342,13 +1398,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1420,13 +1476,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1491,13 +1547,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1858,9 +1914,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:U30"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:CI31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1875,765 +1934,750 @@
     <col min="11" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.5703125" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:87" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:87" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+    </row>
+    <row r="5" spans="1:87" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="K8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="K9" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+    </row>
+    <row r="10" spans="1:87" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10"/>
+      <c r="K10" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="M10" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="K11" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="K12" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="K13" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="K14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="O15" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+      <c r="O16" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+      <c r="O17" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="K18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="O18" s="38"/>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="44"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="O3" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="S3" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-    </row>
-    <row r="4" spans="1:21" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="44"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="44"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="44"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="44"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="46"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="46"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="46"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="46"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="46"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="G9" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="44"/>
-      <c r="N9"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="46"/>
-      <c r="R9"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="46"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="G10" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="46"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="46"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="46"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="46"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="G12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="46"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="46"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="46"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="46"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="46"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="46"/>
-      <c r="K14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="46"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="46"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="46"/>
-      <c r="K15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="46"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="46"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-    </row>
-    <row r="17" spans="1:21" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="O17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="S17" s="41"/>
-      <c r="U17" s="42"/>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="44"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="61"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="46"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="46"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="46"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="63"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="46"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="46"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="46"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="46"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="63"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="46"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="46"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="46"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="46"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="71" t="s">
+      <c r="B23" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="63"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="46"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="46"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="46"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="46"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="46"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="46"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="46"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="63"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="46"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="46"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="46"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="46"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="63"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="46"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="46"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="46"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="46"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="63"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="46"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="46"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="46"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="46"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="63"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="46"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="46"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="46"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="46"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="63"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="46"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="46"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="46"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="46"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="66"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="49"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="44"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="44"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="44"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="44"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="44"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="44"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="44"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="46"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="61"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:T16" name="Contact Fields"/>
-    <protectedRange sqref="A24:U29 F19:U23" name="Questionnaire"/>
-    <protectedRange sqref="A19:E23" name="Questionnaire_1"/>
+    <protectedRange sqref="A7:R17" name="Contact Fields"/>
+    <protectedRange sqref="F20:J24 K20:R30 A25:J30" name="Questionnaire"/>
+    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="A20:E24" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:AC17 B7:AC15">
+  <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:R10">
+    <cfRule type="expression" dxfId="13" priority="25">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="26">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:Q30">
     <cfRule type="expression" dxfId="11" priority="17">
-      <formula>$C7="x"</formula>
+      <formula>$C20="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="18">
-      <formula>$D7="x"</formula>
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:U29">
+  <conditionalFormatting sqref="G20:I30">
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$C19="x"</formula>
+      <formula>$C20="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$D19="x"</formula>
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:Q29">
+  <conditionalFormatting sqref="A8:A16">
     <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$C19="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D19="x"</formula>
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:M29">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="K20:M30">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:I29">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="K8:N18">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A15">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="S10:Z10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19:U29 Q19:Q29 M19:M29 I19:I29 Q6:Q16 U6:U16 M6:M16 I6:I16" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q20:Q30 I20:I30 I7:I17 Q7:Q17 M20:M30 M7:M17" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D16" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D7AA0-ADA3-40D1-A105-16FD70F15FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98A407-21A9-41FD-9C7E-2C4E486FB079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{6BB13B31-BB63-41BC-A3B7-87A32439B3C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{7D083F8D-F203-4ED3-9A3D-DBF149D94168}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
@@ -212,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +325,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1913,12 +1958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:CI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,15 +2719,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q20:Q30 I20:I30 I7:I17 Q7:Q17 M20:M30 M7:M17" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q7:Q17 Q20:Q30 M20:M30 I20:I30" xr:uid="{6497D81A-C6CE-4DCD-9058-213762C32894}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98A407-21A9-41FD-9C7E-2C4E486FB079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B14D7-A2F2-4BC1-B788-9DCD31847E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$20:$Q$30,Tabelle1!$I$20:$I$30,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$20:$P$30,Tabelle1!$H$20:$H$30,Tabelle1!$H$7:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,21 +40,7 @@
     <author>Valentin Schönrock</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{6BB13B31-BB63-41BC-A3B7-87A32439B3C2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{7D083F8D-F203-4ED3-9A3D-DBF149D94168}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{7D083F8D-F203-4ED3-9A3D-DBF149D94168}">
       <text>
         <r>
           <rPr>
@@ -73,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>snapADDY</t>
   </si>
@@ -178,9 +164,6 @@
   </si>
   <si>
     <t>Straße</t>
-  </si>
-  <si>
-    <t>Pflichtfeld</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -366,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -438,21 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -494,21 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -583,10 +536,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
@@ -596,64 +562,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -738,8 +663,49 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
       <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -752,7 +718,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -767,7 +733,9 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
@@ -781,7 +749,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -790,82 +758,6 @@
       <left style="thin">
         <color rgb="FFFE6C36"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
@@ -1116,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1146,124 +1038,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -1272,96 +1140,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1441,13 +1221,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
@@ -1519,13 +1299,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -1590,13 +1370,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -1960,48 +1740,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:CI31"/>
+  <dimension ref="A1:CH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:87" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:86" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:87" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:86" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2009,156 +1787,149 @@
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="64" t="s">
+      <c r="D4" s="6"/>
+      <c r="F4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-    </row>
-    <row r="5" spans="1:87" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+    </row>
+    <row r="5" spans="1:86" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:86" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="L6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="O6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:86" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="56" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="J8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="K8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="L8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="K9" s="56" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="J9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="K9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="L9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-    </row>
-    <row r="10" spans="1:87" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10"/>
-      <c r="K10" s="56" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10"/>
+      <c r="J10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="K10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="L10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N10"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
+      <c r="M10"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -2228,502 +1999,450 @@
       <c r="CF10"/>
       <c r="CG10"/>
       <c r="CH10"/>
-      <c r="CI10"/>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="K11" s="56" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="J11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="K11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="L11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="56" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="J12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="K12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="L12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="56" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="J13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="L13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="K14" s="56" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="K14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="L14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="O15" s="56" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="N15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="O15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="P15" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="O16" s="56" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="N16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="O16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="58" t="s">
+      <c r="P16" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="O17" s="59" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="P17" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+    <row r="18" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="G19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="H19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="J19" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="K19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="L19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="N19" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="48" t="s">
+      <c r="O19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q19" s="49" t="s">
+      <c r="P19" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="37"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="B21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="B22" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="39"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="44"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="44"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="44"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="44"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="44"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="39"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="39"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="53"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="39"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="39"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="39"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="39"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="39"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="41"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:R17" name="Contact Fields"/>
-    <protectedRange sqref="F20:J24 K20:R30 A25:J30" name="Questionnaire"/>
+    <protectedRange sqref="A7:Q17" name="Contact Fields"/>
+    <protectedRange sqref="E20:I24 J20:Q30 C25:I30 A25:B30" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A20:E24" name="Questionnaire_1"/>
+    <protectedRange sqref="C20:D24 A20:B24" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:R10">
-    <cfRule type="expression" dxfId="13" priority="25">
+  <conditionalFormatting sqref="A17:I18 B8:I16 J8:Y18">
+    <cfRule type="expression" dxfId="5" priority="27">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>$D8="x"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:P30 F20:H30 J20:L30">
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>#REF!="x"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:Q30">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I30">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="46">
       <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:M30">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10:Z10">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 L7:L17 P7:P17 P20:P30 L20:L30 H20:H30" xr:uid="{6497D81A-C6CE-4DCD-9058-213762C32894}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q7:Q17 Q20:Q30 M20:M30 I20:I30" xr:uid="{6497D81A-C6CE-4DCD-9058-213762C32894}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B14D7-A2F2-4BC1-B788-9DCD31847E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22625A5-8D20-4825-8EBF-28FA5782F063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="10320" yWindow="2565" windowWidth="5445" windowHeight="12210" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -169,39 +169,6 @@
     <t>nicht benötigt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte den Name der master-Vorlage eingeben]</t>
-    </r>
-  </si>
-  <si>
     <t>Kampagnen-ID</t>
   </si>
   <si>
@@ -227,13 +194,16 @@
   </si>
   <si>
     <t>Hubspot: Person</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +230,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1012,14 +975,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1032,59 +995,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1106,26 +1069,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,9 +1705,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:CH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1762,8 +1723,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
+      <c r="A1" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1788,23 +1749,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="F4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="N4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="1:86" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:86" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2210,12 +2171,12 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="37"/>
       <c r="F20" s="48"/>
       <c r="G20" s="49"/>
@@ -2229,12 +2190,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="39"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
@@ -2248,12 +2209,12 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="39"/>
       <c r="F22" s="51"/>
       <c r="G22" s="52"/>
@@ -2267,12 +2228,12 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="39"/>
       <c r="F23" s="51"/>
       <c r="G23" s="52"/>
@@ -2286,8 +2247,8 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="39"/>
       <c r="F24" s="51"/>
       <c r="G24" s="52"/>
@@ -2301,8 +2262,8 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="39"/>
       <c r="F25" s="51"/>
       <c r="G25" s="52"/>
@@ -2316,8 +2277,8 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="39"/>
       <c r="F26" s="51"/>
       <c r="G26" s="52"/>
@@ -2331,8 +2292,8 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="39"/>
       <c r="F27" s="51"/>
       <c r="G27" s="52"/>
@@ -2346,8 +2307,8 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="39"/>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>
@@ -2361,8 +2322,8 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="39"/>
       <c r="F29" s="51"/>
       <c r="G29" s="52"/>
@@ -2376,8 +2337,8 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="41"/>
       <c r="F30" s="54"/>
       <c r="G30" s="55"/>
@@ -2398,11 +2359,6 @@
     <protectedRange sqref="C20:D24 A20:B24" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B20:C20"/>
@@ -2412,6 +2368,11 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:I18 B8:I16 J8:Y18">
     <cfRule type="expression" dxfId="5" priority="27">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22625A5-8D20-4825-8EBF-28FA5782F063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD20E6-8E02-4E19-B4E4-C0E1C938E23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2565" windowWidth="5445" windowHeight="12210" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="30960" yWindow="2400" windowWidth="14460" windowHeight="15600" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$20:$P$30,Tabelle1!$H$20:$H$30,Tabelle1!$H$7:$H$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$25</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$25,Tabelle1!$P$28:$P$38,Tabelle1!$H$28:$H$38,Tabelle1!$H$7:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>snapADDY</t>
   </si>
@@ -118,12 +118,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>Pipeline-Phase</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -197,6 +191,60 @@
   </si>
   <si>
     <t>Grabber Mapping</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>MobilTelefon</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>domain</t>
   </si>
 </sst>
 </file>
@@ -312,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -967,11 +1015,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1069,9 +1161,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1090,11 +1179,306 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1264,13 +1648,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1335,13 +1719,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1703,9 +2087,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:CH31"/>
+  <dimension ref="A1:CH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1724,7 +2110,7 @@
   <sheetData>
     <row r="1" spans="1:86" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1746,26 +2132,26 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="F4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="N4" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
     </row>
     <row r="5" spans="1:86" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:86" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1821,172 +2207,100 @@
       <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="J8" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
+      <c r="A8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="J9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10"/>
-      <c r="J10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
+      <c r="A9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="69"/>
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="J11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
     </row>
     <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -1995,211 +2309,326 @@
       <c r="G12" s="52"/>
       <c r="H12" s="53"/>
       <c r="J12" s="51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="51"/>
       <c r="O12" s="52"/>
       <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" s="51"/>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+    <row r="14" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="F14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" s="51" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M14"/>
       <c r="N14" s="51"/>
       <c r="O14" s="52"/>
       <c r="P14" s="53"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
     </row>
     <row r="15" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="20"/>
+      <c r="A15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="N15" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>24</v>
-      </c>
+      <c r="F15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="N16" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="52" t="s">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="F16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="N17" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="N18" s="33"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="37"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="J16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="F18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="F19" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="F20" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="39"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="A21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="F21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="J21" s="51"/>
       <c r="K21" s="52"/>
       <c r="L21" s="53"/>
@@ -2208,122 +2637,171 @@
       <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="F22" s="51"/>
       <c r="G22" s="52"/>
       <c r="H22" s="53"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="J22" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="N22" s="51"/>
       <c r="O22" s="52"/>
       <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="F23" s="51"/>
       <c r="G23" s="52"/>
       <c r="H23" s="53"/>
       <c r="J23" s="51"/>
       <c r="K23" s="52"/>
       <c r="L23" s="53"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="N23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="F24" s="51"/>
       <c r="G24" s="52"/>
       <c r="H24" s="53"/>
       <c r="J24" s="51"/>
       <c r="K24" s="52"/>
       <c r="L24" s="53"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="39"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="39"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="39"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="39"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="37"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="60"/>
       <c r="D29" s="39"/>
       <c r="F29" s="51"/>
       <c r="G29" s="52"/>
@@ -2335,74 +2813,282 @@
       <c r="O29" s="52"/>
       <c r="P29" s="53"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="41"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="39"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="39"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="39"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="39"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="53"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="39"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="53"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="39"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="53"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="39"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="39"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="41"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="56"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:Q17" name="Contact Fields"/>
-    <protectedRange sqref="E20:I24 J20:Q30 C25:I30 A25:B30" name="Questionnaire"/>
+    <protectedRange sqref="A7:Q25" name="Contact Fields"/>
+    <protectedRange sqref="E28:I32 J28:Q38 A33:I38" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="C20:D24 A20:B24" name="Questionnaire_1"/>
+    <protectedRange sqref="A28:D32" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I18 B8:I16 J8:Y18">
-    <cfRule type="expression" dxfId="5" priority="27">
+  <conditionalFormatting sqref="A25:I26 B12:Y17 B22:I24 B18:E21 G18:I21 J19:Y26 M18:Y18">
+    <cfRule type="expression" dxfId="31" priority="49">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="30" priority="50">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:P38 F28:H38 J28:L38">
+    <cfRule type="expression" dxfId="29" priority="63">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="64">
+      <formula>$C28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A24">
+    <cfRule type="expression" dxfId="27" priority="67">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="68">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$C19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$C20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$C21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L18">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$C8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:P30 F20:H30 J20:L30">
-    <cfRule type="expression" dxfId="3" priority="41">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>$C20="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$C9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="1" priority="45">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="46">
-      <formula>$C8="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 L7:L17 P7:P17 P20:P30 L20:L30 H20:H30" xr:uid="{6497D81A-C6CE-4DCD-9058-213762C32894}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H25 H28:H38 P7:P25 P28:P38 L28:L38 L7:L25" xr:uid="{6497D81A-C6CE-4DCD-9058-213762C32894}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D7AA0-ADA3-40D1-A105-16FD70F15FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553B380-AB39-43DD-8F9E-74A8AB6E7CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$20:$Q$30,Tabelle1!$I$20:$I$30,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$16</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$16,Tabelle1!$Q$19:$Q$29,Tabelle1!$I$19:$I$29,Tabelle1!$I$6:$I$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>snapADDY</t>
   </si>
@@ -146,39 +146,6 @@
   </si>
   <si>
     <t>nicht benötigt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte den Name der master-Vorlage eingeben]</t>
-    </r>
   </si>
   <si>
     <t>Kampagnen-ID</t>
@@ -212,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,23 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1071,18 +1024,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1095,74 +1047,74 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1184,34 +1136,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1398,13 +1350,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1476,13 +1428,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1547,13 +1499,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1915,10 +1867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:CI31"/>
+  <dimension ref="A1:CI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,748 +1889,738 @@
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:87" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+    </row>
+    <row r="4" spans="1:87" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="K7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57"/>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="K8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="57"/>
+    </row>
+    <row r="9" spans="1:87" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9"/>
+      <c r="K9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="K10" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="K11" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="K12" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="K13" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="O14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="O15" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
+      <c r="O16" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="K17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="O17" s="37"/>
+      <c r="Q17" s="38"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:87" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:87" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-    </row>
-    <row r="5" spans="1:87" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="K9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-    </row>
-    <row r="10" spans="1:87" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10"/>
-      <c r="K10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="K11" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="K14" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="O15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="O16" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="O17" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="B19" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="B20" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="43"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+      <c r="B21" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
+      <c r="B22" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="44"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="44"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="44"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="43"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="44"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="44"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="45"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:R17" name="Contact Fields"/>
-    <protectedRange sqref="F20:J24 K20:R30 A25:J30" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A20:E24" name="Questionnaire_1"/>
+    <protectedRange sqref="A6:R16" name="Contact Fields"/>
+    <protectedRange sqref="F19:J23 K19:R29 A24:J29" name="Questionnaire"/>
+    <protectedRange sqref="A19:E23" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 O8:Z9 O11:Z18 O10:R10">
+  <conditionalFormatting sqref="A16:J17 B7:J15 O7:Z8 O10:Z17 O9:R9">
     <cfRule type="expression" dxfId="13" priority="25">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="26">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:Q30">
+  <conditionalFormatting sqref="O19:Q29">
     <cfRule type="expression" dxfId="11" priority="17">
-      <formula>$C20="x"</formula>
+      <formula>$C19="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="18">
-      <formula>$D20="x"</formula>
+      <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I30">
+  <conditionalFormatting sqref="G19:I29">
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$C20="x"</formula>
+      <formula>$C19="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$D20="x"</formula>
+      <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
+  <conditionalFormatting sqref="A7:A15">
     <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:M30">
+  <conditionalFormatting sqref="K19:M29">
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C20="x"</formula>
+      <formula>$C19="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$D20="x"</formula>
+      <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
+  <conditionalFormatting sqref="K7:N17">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:Z10">
+  <conditionalFormatting sqref="S9:Z9">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C10="x"</formula>
+      <formula>$C9="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D10="x"</formula>
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q20:Q30 I20:I30 I7:I17 Q7:Q17 M20:M30 M7:M17" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D16" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+      <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
-      <formula1>"x"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I16 M6:M16 Q6:Q16 Q19:Q29 M19:M29 I19:I29" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553B380-AB39-43DD-8F9E-74A8AB6E7CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC35A19A-006E-4C9A-98AF-CB62094158B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$16</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$16,Tabelle1!$Q$19:$Q$29,Tabelle1!$I$19:$I$29,Tabelle1!$I$6:$I$16</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$24,Tabelle1!$Q$27:$Q$35,Tabelle1!$I$27:$I$35,Tabelle1!$I$6:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
   <si>
     <t>snapADDY</t>
   </si>
@@ -94,9 +94,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
     <t>Pipeline-Phase</t>
   </si>
   <si>
@@ -148,18 +145,6 @@
     <t>nicht benötigt</t>
   </si>
   <si>
-    <t>Kampagnen-ID</t>
-  </si>
-  <si>
-    <t>Vorlagen-ID</t>
-  </si>
-  <si>
-    <t>VR Titel</t>
-  </si>
-  <si>
-    <t>Vorlagentitel</t>
-  </si>
-  <si>
     <t>Erstellt am (Datum)</t>
   </si>
   <si>
@@ -173,6 +158,66 @@
   </si>
   <si>
     <t>Hubspot: Person</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>JobTitel</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Mobiltelefon</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -623,7 +668,7 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -634,181 +679,188 @@
     <border>
       <left style="thin">
         <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FFF87757"/>
       </right>
       <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
+        <color rgb="FFF87757"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF87757"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -819,7 +871,9 @@
       <top style="thick">
         <color rgb="FFF87757"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -828,7 +882,9 @@
       <top style="thick">
         <color rgb="FFF87757"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -839,46 +895,9 @@
       <top style="thick">
         <color rgb="FFF87757"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFF87757"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,7 +905,7 @@
         <color rgb="FFF87757"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
@@ -897,7 +916,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
@@ -910,7 +929,7 @@
       <right style="thick">
         <color rgb="FFF87757"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFF87757"/>
       </top>
       <bottom style="thin">
@@ -926,7 +945,7 @@
       <top style="thin">
         <color rgb="FFF87757"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
@@ -937,7 +956,7 @@
       <top style="thin">
         <color rgb="FFF87757"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
@@ -950,8 +969,62 @@
       <top style="thin">
         <color rgb="FFF87757"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +1033,8 @@
         <color rgb="FFF87757"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
@@ -971,10 +1042,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
@@ -984,39 +1053,9 @@
       <right style="thick">
         <color rgb="FFF87757"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,64 +1152,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -1223,52 +1258,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1428,14 +1419,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1499,14 +1490,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1867,10 +1858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:CI30"/>
+  <dimension ref="A1:CI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,737 +1880,909 @@
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:87" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:87" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-    </row>
-    <row r="4" spans="1:87" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="O3" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="K15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="K7" s="55" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="L16" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+    </row>
+    <row r="17" spans="1:87" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+    </row>
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
-    </row>
-    <row r="9" spans="1:87" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+    </row>
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9"/>
-      <c r="K9" s="55" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-    </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="K10" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="H19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+    </row>
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="K11" s="55" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="H20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+    </row>
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="K21" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+    </row>
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
+      <c r="O22" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="O23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="K12" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="K13" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="O14" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="56" t="s">
+      <c r="P23" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    </row>
+    <row r="24" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="O24" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="O15" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
-      <c r="O16" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="K17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="O17" s="37"/>
-      <c r="Q17" s="38"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="Q24" s="58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="O25" s="37"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H26" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I26" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K26" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L26" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M26" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O26" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P26" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="48" t="s">
+      <c r="Q26" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="27" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="41"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+    </row>
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="41"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="43"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="64" t="s">
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="43"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="43"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="43"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="45"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="41"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+    </row>
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="41"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+    </row>
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="41"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+    </row>
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="41"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+    </row>
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="41"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="41"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="41"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="43"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="58"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:R16" name="Contact Fields"/>
-    <protectedRange sqref="F19:J23 K19:R29 A24:J29" name="Questionnaire"/>
-    <protectedRange sqref="A19:E23" name="Questionnaire_1"/>
+    <protectedRange sqref="A6:R24" name="Contact Fields"/>
+    <protectedRange sqref="F27:J29 K27:R35 A30:J35" name="Questionnaire"/>
+    <protectedRange sqref="A27:E29" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:J17 B7:J15 O7:Z8 O10:Z17 O9:R9">
-    <cfRule type="expression" dxfId="13" priority="25">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A24:J25 B15:J15 O15:Z16 O18:Z25 O17:R17 B21:J23 B16:H20 J16:J20">
+    <cfRule type="expression" dxfId="9" priority="25">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="26">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:Q29">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="O27:Q35 G27:I35 K27:M35">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="18">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:I29">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="expression" dxfId="5" priority="13">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A15">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="K15:N25">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:M29">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C19="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$D19="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:N17">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:Z9">
+  <conditionalFormatting sqref="S17:Z17">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C9="x"</formula>
+      <formula>$C17="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D9="x"</formula>
+      <formula>$D17="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D16" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I16 M6:M16 Q6:Q16 Q19:Q29 M19:M29 I19:I29" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 Q6:Q24 I6:I24 I27:I35 Q27:Q35 M27:M35" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
